--- a/WorkBot/main/backend/ordering/Completed Orders/Ithaca Bakery/Ithaca Bakery_Easthill_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/Ithaca Bakery/Ithaca Bakery_Easthill_20250620.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,6 +1525,114 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Whitefish Salad</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Smoked Salmon (Retail Pack)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Grandma's</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Grandma's Coffee Cake - Cinnamon w/ Nuts</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Grandma's</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Grandma's Coffee Cake - Cinnamon</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
